--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGINMessage.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGINMessage.xlsx
@@ -42,7 +42,7 @@
     <t>StartNetwork_Checkbox</t>
   </si>
   <si>
-    <t>390200620892</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -592,18 +592,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGINMessage.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGINMessage.xlsx
@@ -33,9 +33,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>APT_VoiceService</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>url for the product</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,13 +558,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -583,24 +583,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGINMessage.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGINMessage.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="NGINMessage" sheetId="2" r:id="rId1"/>
+    <sheet name="Unique Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>NGINMessage_SANNumber</t>
   </si>
@@ -44,6 +45,9 @@
   <si>
     <t>url for the product</t>
   </si>
+  <si>
+    <t>Columns for which unique data to be provided</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +80,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -102,6 +112,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +399,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +574,7 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -808,4 +822,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>